--- a/final_report/Trace_Report_Inbound YC Reload HRW_initial.xlsx
+++ b/final_report/Trace_Report_Inbound YC Reload HRW_initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0F51D9-3CC8-4419-B66F-E3BE22C8FE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CFDF97-8374-4C1B-A2B2-A4870D2B0A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2970" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="61">
   <si>
     <t>Initial</t>
   </si>
@@ -65,55 +65,58 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CITX</t>
+  </si>
+  <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Release from Cust</t>
+  </si>
+  <si>
+    <t>SAVAGE</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
     <t>CNW</t>
   </si>
   <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Release from Cust</t>
-  </si>
-  <si>
-    <t>SAVAGE</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>UP</t>
+    <t>MP</t>
   </si>
   <si>
     <t>CMO</t>
   </si>
   <si>
-    <t>MKT</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>CEFX</t>
-  </si>
-  <si>
-    <t>WINDSOR</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
+    <t>Placed Actual</t>
+  </si>
+  <si>
+    <t>NOKL</t>
+  </si>
+  <si>
+    <t>NDYX</t>
   </si>
   <si>
     <t>SCFX</t>
   </si>
   <si>
-    <t>NDYX</t>
-  </si>
-  <si>
-    <t>NOKL</t>
-  </si>
-  <si>
-    <t>CITX</t>
+    <t>MERRIAM</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MVPNP2</t>
+  </si>
+  <si>
+    <t>COER</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -125,109 +128,94 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/15/2023 05:58:50 EDT, by WPJTOWN1.The search returned: 33 events.</t>
+    <t>Description unknown, completed 06/21/2023 08:48:34 EDT, by WPJTOWN1.The search returned: 28 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>CNW178351</t>
-  </si>
-  <si>
-    <t>UP95501</t>
-  </si>
-  <si>
-    <t>UP99794</t>
-  </si>
-  <si>
-    <t>CMO112610</t>
-  </si>
-  <si>
-    <t>MKT4493</t>
-  </si>
-  <si>
-    <t>MP723971</t>
-  </si>
-  <si>
-    <t>CEFX350724</t>
-  </si>
-  <si>
-    <t>CMO21422</t>
-  </si>
-  <si>
-    <t>UP92667</t>
-  </si>
-  <si>
-    <t>UP75187</t>
-  </si>
-  <si>
-    <t>UP111617</t>
-  </si>
-  <si>
-    <t>UP99065</t>
-  </si>
-  <si>
-    <t>UP90029</t>
+    <t>CITX702202</t>
+  </si>
+  <si>
+    <t>UP77257</t>
+  </si>
+  <si>
+    <t>UP76084</t>
+  </si>
+  <si>
+    <t>UP79794</t>
+  </si>
+  <si>
+    <t>UP93318</t>
+  </si>
+  <si>
+    <t>UP79331</t>
+  </si>
+  <si>
+    <t>CNW178455</t>
+  </si>
+  <si>
+    <t>MP722657</t>
+  </si>
+  <si>
+    <t>CMO22761</t>
   </si>
   <si>
     <t>UP100044</t>
   </si>
   <si>
-    <t>CMO22761</t>
+    <t>UP75481</t>
+  </si>
+  <si>
+    <t>MP722708</t>
+  </si>
+  <si>
+    <t>CMO23472</t>
+  </si>
+  <si>
+    <t>CNW178081</t>
+  </si>
+  <si>
+    <t>UP78528</t>
+  </si>
+  <si>
+    <t>NOKL846001</t>
+  </si>
+  <si>
+    <t>NDYX850144</t>
+  </si>
+  <si>
+    <t>NDYX845913</t>
+  </si>
+  <si>
+    <t>SCFX516157</t>
   </si>
   <si>
     <t>MP723159</t>
   </si>
   <si>
-    <t>SCFX516157</t>
-  </si>
-  <si>
-    <t>NDYX845913</t>
-  </si>
-  <si>
-    <t>NDYX850144</t>
-  </si>
-  <si>
-    <t>NOKL846001</t>
-  </si>
-  <si>
-    <t>UP78528</t>
-  </si>
-  <si>
-    <t>CNW178081</t>
-  </si>
-  <si>
-    <t>CMO23472</t>
-  </si>
-  <si>
-    <t>MP722708</t>
-  </si>
-  <si>
-    <t>UP75481</t>
-  </si>
-  <si>
-    <t>MP722657</t>
-  </si>
-  <si>
-    <t>CNW178455</t>
-  </si>
-  <si>
-    <t>UP79331</t>
-  </si>
-  <si>
-    <t>UP93318</t>
-  </si>
-  <si>
-    <t>UP79794</t>
-  </si>
-  <si>
-    <t>UP76084</t>
-  </si>
-  <si>
-    <t>UP77257</t>
-  </si>
-  <si>
-    <t>CITX702202</t>
+    <t>CMO20046</t>
+  </si>
+  <si>
+    <t>CMO22325</t>
+  </si>
+  <si>
+    <t>CMO265235</t>
+  </si>
+  <si>
+    <t>COER355059</t>
+  </si>
+  <si>
+    <t>UP93311</t>
+  </si>
+  <si>
+    <t>UP95524</t>
+  </si>
+  <si>
+    <t>UP99740</t>
+  </si>
+  <si>
+    <t>UP99979</t>
   </si>
 </sst>
 </file>
@@ -1068,17 +1056,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O35"/>
+      <selection activeCell="O3" sqref="O3:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1116,16 +1104,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>178351</v>
+        <v>702202</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1145,10 +1133,10 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>730</v>
+        <v>1123</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -1160,16 +1148,16 @@
         <v>15</v>
       </c>
       <c r="L3">
-        <v>61000</v>
+        <v>62700</v>
       </c>
       <c r="M3">
-        <v>61000</v>
+        <v>62700</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1177,7 +1165,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>95501</v>
+        <v>77257</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1189,10 +1177,10 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>730</v>
+        <v>1123</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -1204,16 +1192,16 @@
         <v>15</v>
       </c>
       <c r="L4">
-        <v>63000</v>
+        <v>62100</v>
       </c>
       <c r="M4">
-        <v>63000</v>
+        <v>62100</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1221,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>99794</v>
+        <v>76084</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1233,10 +1221,10 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>730</v>
+        <v>1123</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1248,24 +1236,24 @@
         <v>15</v>
       </c>
       <c r="L5">
-        <v>61300</v>
+        <v>63500</v>
       </c>
       <c r="M5">
-        <v>61300</v>
+        <v>63500</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>112610</v>
+        <v>79794</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1277,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>730</v>
+        <v>1430</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1292,24 +1280,24 @@
         <v>15</v>
       </c>
       <c r="L6">
-        <v>62400</v>
+        <v>63000</v>
       </c>
       <c r="M6">
-        <v>62400</v>
+        <v>63000</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>4493</v>
+        <v>93318</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1321,10 +1309,10 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>730</v>
+        <v>1430</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1336,24 +1324,24 @@
         <v>15</v>
       </c>
       <c r="L7">
-        <v>62500</v>
+        <v>63000</v>
       </c>
       <c r="M7">
-        <v>62500</v>
+        <v>63000</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>723971</v>
+        <v>79331</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1365,10 +1353,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>730</v>
+        <v>1430</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -1380,24 +1368,24 @@
         <v>15</v>
       </c>
       <c r="L8">
-        <v>62800</v>
+        <v>63800</v>
       </c>
       <c r="M8">
-        <v>62800</v>
+        <v>63800</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>350724</v>
+        <v>178455</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1409,10 +1397,10 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>1745</v>
+        <v>1430</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -1424,24 +1412,24 @@
         <v>15</v>
       </c>
       <c r="L9">
-        <v>61900</v>
+        <v>60800</v>
       </c>
       <c r="M9">
-        <v>61900</v>
+        <v>60800</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>21422</v>
+        <v>722657</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1453,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>1745</v>
+        <v>1430</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -1468,24 +1456,24 @@
         <v>15</v>
       </c>
       <c r="L10">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="M10">
-        <v>62100</v>
+        <v>61500</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>92667</v>
+        <v>22761</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1497,10 +1485,10 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>1745</v>
+        <v>1123</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1512,16 +1500,16 @@
         <v>15</v>
       </c>
       <c r="L11">
-        <v>60300</v>
+        <v>60700</v>
       </c>
       <c r="M11">
-        <v>60300</v>
+        <v>60700</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1529,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>75187</v>
+        <v>100044</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1541,10 +1529,10 @@
         <v>6</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>1745</v>
+        <v>1123</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1556,16 +1544,16 @@
         <v>15</v>
       </c>
       <c r="L12">
-        <v>62500</v>
+        <v>62200</v>
       </c>
       <c r="M12">
-        <v>62500</v>
+        <v>62200</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1573,10 +1561,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>111617</v>
+        <v>75481</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1585,13 +1573,13 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -1600,27 +1588,27 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>222000</v>
+        <v>197200</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>222000</v>
+        <v>197200</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>99065</v>
+        <v>722708</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1629,13 +1617,13 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -1644,27 +1632,27 @@
         <v>12</v>
       </c>
       <c r="L14">
-        <v>222750</v>
+        <v>200070</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>222750</v>
+        <v>200070</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>90029</v>
+        <v>23472</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1673,13 +1661,13 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -1688,27 +1676,27 @@
         <v>12</v>
       </c>
       <c r="L15">
-        <v>219240</v>
+        <v>220550</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>219240</v>
+        <v>220550</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>100044</v>
+        <v>178081</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1717,13 +1705,13 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -1732,42 +1720,42 @@
         <v>12</v>
       </c>
       <c r="L16">
-        <v>220840</v>
+        <v>200350</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>220840</v>
+        <v>200350</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>78528</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>22761</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
       <c r="G17">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -1776,27 +1764,27 @@
         <v>12</v>
       </c>
       <c r="L17">
-        <v>222400</v>
+        <v>198110</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>222400</v>
+        <v>198110</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>723159</v>
+        <v>846001</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1805,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -1820,27 +1808,27 @@
         <v>12</v>
       </c>
       <c r="L18">
-        <v>199010</v>
+        <v>220280</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>199010</v>
+        <v>220280</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>516157</v>
+        <v>850144</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1849,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1864,27 +1852,27 @@
         <v>12</v>
       </c>
       <c r="L19">
-        <v>222500</v>
+        <v>220950</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>222500</v>
+        <v>220950</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>845913</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1893,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1917,18 +1905,18 @@
         <v>220650</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>850144</v>
+        <v>516157</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1937,13 +1925,13 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1952,27 +1940,27 @@
         <v>12</v>
       </c>
       <c r="L21">
-        <v>220950</v>
+        <v>222500</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>220950</v>
+        <v>222500</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>846001</v>
+        <v>723159</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1981,13 +1969,13 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G22">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1996,42 +1984,45 @@
         <v>12</v>
       </c>
       <c r="L22">
-        <v>220280</v>
+        <v>199010</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>220280</v>
+        <v>199010</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>78528</v>
+        <v>20046</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G23">
-        <v>1618</v>
+        <v>2350</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -2040,42 +2031,45 @@
         <v>12</v>
       </c>
       <c r="L23">
-        <v>198110</v>
+        <v>220440</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>198110</v>
+        <v>220440</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>178081</v>
+        <v>22325</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>1618</v>
+        <v>2350</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -2084,42 +2078,45 @@
         <v>12</v>
       </c>
       <c r="L24">
-        <v>200350</v>
+        <v>221890</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>200350</v>
+        <v>221890</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>23472</v>
+        <v>265235</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>1618</v>
+        <v>2350</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -2128,42 +2125,45 @@
         <v>12</v>
       </c>
       <c r="L25">
-        <v>220550</v>
+        <v>219030</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>220550</v>
+        <v>219030</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>722708</v>
+        <v>355059</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>6</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>1618</v>
+        <v>2350</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -2172,16 +2172,16 @@
         <v>12</v>
       </c>
       <c r="L26">
-        <v>200070</v>
+        <v>221470</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>200070</v>
+        <v>221470</v>
       </c>
       <c r="O26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2189,25 +2189,28 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <v>75481</v>
+        <v>93311</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G27">
-        <v>1003</v>
+        <v>2350</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -2216,42 +2219,45 @@
         <v>12</v>
       </c>
       <c r="L27">
-        <v>197200</v>
+        <v>221120</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>197200</v>
+        <v>221120</v>
       </c>
       <c r="O27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>722657</v>
+        <v>95524</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G28">
-        <v>1003</v>
+        <v>2350</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -2260,42 +2266,45 @@
         <v>12</v>
       </c>
       <c r="L28">
-        <v>198420</v>
+        <v>221010</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>198420</v>
+        <v>221010</v>
       </c>
       <c r="O28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>178455</v>
+        <v>99740</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>1003</v>
+        <v>2350</v>
       </c>
       <c r="H29" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -2304,16 +2313,16 @@
         <v>12</v>
       </c>
       <c r="L29">
-        <v>199210</v>
+        <v>222000</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>199210</v>
+        <v>222000</v>
       </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2321,25 +2330,28 @@
         <v>16</v>
       </c>
       <c r="B30">
-        <v>79331</v>
+        <v>99979</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G30">
-        <v>1003</v>
+        <v>2350</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -2348,236 +2360,16 @@
         <v>12</v>
       </c>
       <c r="L30">
-        <v>196140</v>
+        <v>221120</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>196140</v>
+        <v>221120</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>93318</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>1003</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31">
-        <v>219960</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>219960</v>
-      </c>
-      <c r="O31" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>79794</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>1003</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32">
-        <v>196880</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>196880</v>
-      </c>
-      <c r="O32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>76084</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>1003</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33">
-        <v>196360</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>196360</v>
-      </c>
-      <c r="O33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>77257</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
-      <c r="F34">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>1003</v>
-      </c>
-      <c r="H34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34">
-        <v>197780</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>197780</v>
-      </c>
-      <c r="O34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35">
-        <v>702202</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35">
-        <v>14</v>
-      </c>
-      <c r="G35">
-        <v>1003</v>
-      </c>
-      <c r="H35" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35">
-        <v>219850</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>219850</v>
-      </c>
-      <c r="O35" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/final_report/Trace_Report_Inbound YC Reload HRW_initial.xlsx
+++ b/final_report/Trace_Report_Inbound YC Reload HRW_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CFDF97-8374-4C1B-A2B2-A4870D2B0A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E5894B-06DF-46F3-85F6-3FE43D89AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="3885" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="48">
   <si>
     <t>Initial</t>
   </si>
@@ -65,7 +65,19 @@
     <t>Destination City</t>
   </si>
   <si>
-    <t>CITX</t>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>GRAND ISLAND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MVPNP2</t>
   </si>
   <si>
     <t>JOHNSTOWN</t>
@@ -74,30 +86,21 @@
     <t>CO</t>
   </si>
   <si>
-    <t>Release from Cust</t>
-  </si>
-  <si>
-    <t>SAVAGE</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
+    <t>COER</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
     <t>CNW</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>CMO</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
-  </si>
-  <si>
     <t>NOKL</t>
   </si>
   <si>
@@ -107,18 +110,6 @@
     <t>SCFX</t>
   </si>
   <si>
-    <t>MERRIAM</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>MVPNP2</t>
-  </si>
-  <si>
-    <t>COER</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -128,40 +119,34 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/21/2023 08:48:34 EDT, by WPJTOWN1.The search returned: 28 events.</t>
+    <t>Description unknown, completed 06/22/2023 11:09:19 EDT, by WPJTOWN1.The search returned: 18 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>CITX702202</t>
-  </si>
-  <si>
-    <t>UP77257</t>
-  </si>
-  <si>
-    <t>UP76084</t>
-  </si>
-  <si>
-    <t>UP79794</t>
-  </si>
-  <si>
-    <t>UP93318</t>
-  </si>
-  <si>
-    <t>UP79331</t>
-  </si>
-  <si>
-    <t>CNW178455</t>
-  </si>
-  <si>
-    <t>MP722657</t>
-  </si>
-  <si>
-    <t>CMO22761</t>
-  </si>
-  <si>
-    <t>UP100044</t>
+    <t>CMO20046</t>
+  </si>
+  <si>
+    <t>CMO22325</t>
+  </si>
+  <si>
+    <t>CMO265235</t>
+  </si>
+  <si>
+    <t>COER355059</t>
+  </si>
+  <si>
+    <t>UP93311</t>
+  </si>
+  <si>
+    <t>UP95524</t>
+  </si>
+  <si>
+    <t>UP99740</t>
+  </si>
+  <si>
+    <t>UP99979</t>
   </si>
   <si>
     <t>UP75481</t>
@@ -192,30 +177,6 @@
   </si>
   <si>
     <t>MP723159</t>
-  </si>
-  <si>
-    <t>CMO20046</t>
-  </si>
-  <si>
-    <t>CMO22325</t>
-  </si>
-  <si>
-    <t>CMO265235</t>
-  </si>
-  <si>
-    <t>COER355059</t>
-  </si>
-  <si>
-    <t>UP93311</t>
-  </si>
-  <si>
-    <t>UP95524</t>
-  </si>
-  <si>
-    <t>UP99740</t>
-  </si>
-  <si>
-    <t>UP99979</t>
   </si>
 </sst>
 </file>
@@ -1056,17 +1017,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O30"/>
+      <selection activeCell="O3" sqref="O3:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1104,16 +1065,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1121,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>702202</v>
+        <v>20046</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1133,39 +1094,42 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>1123</v>
+        <v>914</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3">
-        <v>62700</v>
+        <v>220440</v>
       </c>
       <c r="M3">
-        <v>62700</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>220440</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>77257</v>
+        <v>22325</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1177,39 +1141,42 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>1123</v>
+        <v>914</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>62100</v>
+        <v>221890</v>
       </c>
       <c r="M4">
-        <v>62100</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>221890</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>76084</v>
+        <v>265235</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1221,39 +1188,42 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>1123</v>
+        <v>914</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5">
-        <v>63500</v>
+        <v>219030</v>
       </c>
       <c r="M5">
-        <v>63500</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>219030</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>79794</v>
+        <v>355059</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1265,39 +1235,42 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>1430</v>
+        <v>914</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>63000</v>
+        <v>221470</v>
       </c>
       <c r="M6">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>221470</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>93318</v>
+        <v>93311</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -1309,39 +1282,42 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>1430</v>
+        <v>914</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7">
-        <v>63000</v>
+        <v>221120</v>
       </c>
       <c r="M7">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>221120</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>79331</v>
+        <v>95524</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1353,31 +1329,34 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>1430</v>
+        <v>914</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
       </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8">
-        <v>63800</v>
+        <v>221010</v>
       </c>
       <c r="M8">
-        <v>63800</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>221010</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1385,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>178455</v>
+        <v>99740</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1397,39 +1376,42 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>1430</v>
+        <v>914</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
       </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9">
-        <v>60800</v>
+        <v>222000</v>
       </c>
       <c r="M9">
-        <v>60800</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>722657</v>
+        <v>99979</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1441,133 +1423,136 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>1430</v>
+        <v>914</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10">
-        <v>61500</v>
+        <v>221120</v>
       </c>
       <c r="M10">
-        <v>61500</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>221120</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>22761</v>
+        <v>75481</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>1123</v>
+        <v>1431</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>60700</v>
+        <v>197200</v>
       </c>
       <c r="M11">
-        <v>60700</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>197200</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>100044</v>
+        <v>722708</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>1123</v>
+        <v>1431</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12">
-        <v>62200</v>
+        <v>200070</v>
       </c>
       <c r="M12">
-        <v>62200</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>200070</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>75481</v>
+        <v>23472</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -1579,39 +1564,39 @@
         <v>1431</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L13">
-        <v>197200</v>
+        <v>220550</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>197200</v>
+        <v>220550</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>722708</v>
+        <v>178081</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1623,39 +1608,39 @@
         <v>1431</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>200070</v>
+        <v>200350</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>200070</v>
+        <v>200350</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>23472</v>
+        <v>78528</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1667,39 +1652,39 @@
         <v>1431</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L15">
-        <v>220550</v>
+        <v>198110</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>220550</v>
+        <v>198110</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>178081</v>
+        <v>846001</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1711,39 +1696,39 @@
         <v>1431</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L16">
-        <v>200350</v>
+        <v>220280</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>200350</v>
+        <v>220280</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>78528</v>
+        <v>850144</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -1755,39 +1740,39 @@
         <v>1431</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L17">
-        <v>198110</v>
+        <v>220950</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>198110</v>
+        <v>220950</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>846001</v>
+        <v>845913</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1799,39 +1784,39 @@
         <v>1431</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L18">
-        <v>220280</v>
+        <v>220650</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>220280</v>
+        <v>220650</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>850144</v>
+        <v>516157</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -1843,39 +1828,39 @@
         <v>1431</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L19">
-        <v>220950</v>
+        <v>222500</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>220950</v>
+        <v>222500</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>845913</v>
+        <v>723159</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>6</v>
@@ -1887,489 +1872,25 @@
         <v>1431</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L20">
-        <v>220650</v>
+        <v>199010</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>220650</v>
+        <v>199010</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>516157</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>1431</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21">
-        <v>222500</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>222500</v>
-      </c>
-      <c r="O21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>723159</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>1431</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22">
-        <v>199010</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>199010</v>
-      </c>
-      <c r="O22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>20046</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>2350</v>
-      </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23">
-        <v>220440</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>220440</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>22325</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>2350</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24">
-        <v>221890</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>221890</v>
-      </c>
-      <c r="O24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>265235</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>2350</v>
-      </c>
-      <c r="H25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25">
-        <v>219030</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>219030</v>
-      </c>
-      <c r="O25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>355059</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>2350</v>
-      </c>
-      <c r="H26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26">
-        <v>221470</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>221470</v>
-      </c>
-      <c r="O26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>93311</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>2350</v>
-      </c>
-      <c r="H27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27">
-        <v>221120</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>221120</v>
-      </c>
-      <c r="O27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>95524</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>20</v>
-      </c>
-      <c r="G28">
-        <v>2350</v>
-      </c>
-      <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28">
-        <v>221010</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>221010</v>
-      </c>
-      <c r="O28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>99740</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>20</v>
-      </c>
-      <c r="G29">
-        <v>2350</v>
-      </c>
-      <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29">
-        <v>222000</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>222000</v>
-      </c>
-      <c r="O29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>99979</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>2350</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30">
-        <v>221120</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>221120</v>
-      </c>
-      <c r="O30" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/final_report/Trace_Report_Inbound YC Reload HRW_initial.xlsx
+++ b/final_report/Trace_Report_Inbound YC Reload HRW_initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A843E6FF-8058-4D67-BF0F-E34CE8E0646E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467A2CAA-92CC-4C89-9CF2-68D38E71F91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17865" yWindow="-5985" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="115">
   <si>
     <t>Initial</t>
   </si>
@@ -65,6 +65,18 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>Not authorized to view shipment</t>
+  </si>
+  <si>
+    <t>NAHX</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
     <t>CHTT</t>
   </si>
   <si>
@@ -77,7 +89,40 @@
     <t>Arrive In-Transit</t>
   </si>
   <si>
-    <t>MNPDV0</t>
+    <t>LDI602</t>
+  </si>
+  <si>
+    <t>ROSEVILLE</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>COZY</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MTPSI2</t>
+  </si>
+  <si>
+    <t>SALINA</t>
+  </si>
+  <si>
+    <t>COER</t>
+  </si>
+  <si>
+    <t>CBFX</t>
+  </si>
+  <si>
+    <t>EAST GREEN RIV</t>
+  </si>
+  <si>
+    <t>MCYGR2</t>
   </si>
   <si>
     <t>JOHNSTOWN</t>
@@ -86,64 +131,43 @@
     <t>CO</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>CMO</t>
-  </si>
-  <si>
-    <t>GREELEY</t>
-  </si>
-  <si>
-    <t>Junction Received</t>
-  </si>
-  <si>
-    <t>GWR</t>
-  </si>
-  <si>
-    <t>Junction Delivery</t>
+    <t>Placed Actual</t>
   </si>
   <si>
     <t>CEFX</t>
   </si>
   <si>
-    <t>Release from Cust</t>
-  </si>
-  <si>
-    <t>SAVAGE</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>NAHX</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
-  </si>
-  <si>
-    <t>COER</t>
-  </si>
-  <si>
-    <t>CBFX</t>
+    <t>KANSAS CITY</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Placed Construct</t>
   </si>
   <si>
     <t>SCFX</t>
   </si>
   <si>
-    <t>Placed Construct</t>
+    <t>OWASCO</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>MNYNP2</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
   <si>
     <t>CTRN</t>
   </si>
   <si>
-    <t>KELIM</t>
-  </si>
-  <si>
-    <t>KANSAS CITY</t>
-  </si>
-  <si>
-    <t>MO</t>
+    <t>WINDSOR</t>
+  </si>
+  <si>
+    <t>LIBERAL</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -155,66 +179,183 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 10/03/2023 10:49:51 EDT, by WPJTOWN1.The search returned: 65 events.</t>
+    <t>Description unknown, completed 10/24/2023 07:52:34 EDT, by WPJTOWN1.The search returned: 65 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>CMO23018</t>
+  </si>
+  <si>
+    <t>NAHX61354</t>
+  </si>
+  <si>
+    <t>CMO265281</t>
+  </si>
+  <si>
+    <t>UP100103</t>
+  </si>
+  <si>
+    <t>CHTT720797</t>
+  </si>
+  <si>
+    <t>UP99642</t>
+  </si>
+  <si>
+    <t>UP92722</t>
+  </si>
+  <si>
+    <t>UP93008</t>
+  </si>
+  <si>
+    <t>UP99553</t>
+  </si>
+  <si>
+    <t>CHTT721963</t>
+  </si>
+  <si>
+    <t>COER355102</t>
+  </si>
+  <si>
+    <t>CHTT721768</t>
+  </si>
+  <si>
+    <t>CBFX352827</t>
+  </si>
+  <si>
+    <t>CMO111888</t>
+  </si>
+  <si>
+    <t>UP111566</t>
+  </si>
+  <si>
+    <t>CMO113183</t>
+  </si>
+  <si>
+    <t>CMO20995</t>
+  </si>
+  <si>
+    <t>COER354786</t>
+  </si>
+  <si>
+    <t>UP92929</t>
+  </si>
+  <si>
+    <t>CMO21725</t>
+  </si>
+  <si>
+    <t>UP99932</t>
+  </si>
+  <si>
+    <t>CHTT720342</t>
+  </si>
+  <si>
+    <t>CMO13670</t>
+  </si>
+  <si>
+    <t>UP101543</t>
+  </si>
+  <si>
+    <t>UP90117</t>
+  </si>
+  <si>
+    <t>CMO112791</t>
+  </si>
+  <si>
+    <t>UP95926</t>
+  </si>
+  <si>
+    <t>CMO113184</t>
+  </si>
+  <si>
+    <t>CEFX350707</t>
+  </si>
+  <si>
+    <t>UP90658</t>
+  </si>
+  <si>
     <t>CHTT720254</t>
   </si>
   <si>
-    <t>UP93008</t>
-  </si>
-  <si>
-    <t>UP99553</t>
+    <t>CMO113100</t>
+  </si>
+  <si>
+    <t>UP111098</t>
+  </si>
+  <si>
+    <t>UP91674</t>
+  </si>
+  <si>
+    <t>CMO21736</t>
+  </si>
+  <si>
+    <t>CMO200170</t>
+  </si>
+  <si>
+    <t>SCFX516452</t>
+  </si>
+  <si>
+    <t>UP95632</t>
+  </si>
+  <si>
+    <t>CHTT721503</t>
+  </si>
+  <si>
+    <t>CMO23016</t>
+  </si>
+  <si>
+    <t>UP95944</t>
+  </si>
+  <si>
+    <t>CMO20853</t>
+  </si>
+  <si>
+    <t>UP111609</t>
+  </si>
+  <si>
+    <t>CEFX319397</t>
+  </si>
+  <si>
+    <t>CMO21122</t>
+  </si>
+  <si>
+    <t>COER354882</t>
+  </si>
+  <si>
+    <t>CMO21673</t>
+  </si>
+  <si>
+    <t>UP90541</t>
+  </si>
+  <si>
+    <t>CMO21363</t>
+  </si>
+  <si>
+    <t>UP99571</t>
+  </si>
+  <si>
+    <t>CMO23221</t>
+  </si>
+  <si>
+    <t>CMO20993</t>
+  </si>
+  <si>
+    <t>CMO20761</t>
+  </si>
+  <si>
+    <t>CTRN100072</t>
+  </si>
+  <si>
+    <t>UP95888</t>
+  </si>
+  <si>
+    <t>CEFX350694</t>
   </si>
   <si>
     <t>CMO21336</t>
   </si>
   <si>
-    <t>CMO23016</t>
-  </si>
-  <si>
-    <t>UP95944</t>
-  </si>
-  <si>
-    <t>UP99932</t>
-  </si>
-  <si>
-    <t>CHTT720342</t>
-  </si>
-  <si>
-    <t>CMO13670</t>
-  </si>
-  <si>
-    <t>UP101543</t>
-  </si>
-  <si>
-    <t>UP90117</t>
-  </si>
-  <si>
-    <t>CMO112791</t>
-  </si>
-  <si>
-    <t>UP95926</t>
-  </si>
-  <si>
-    <t>CMO113184</t>
-  </si>
-  <si>
-    <t>CEFX350707</t>
-  </si>
-  <si>
-    <t>UP90658</t>
-  </si>
-  <si>
-    <t>CMO20853</t>
-  </si>
-  <si>
-    <t>UP111609</t>
-  </si>
-  <si>
     <t>CMO112198</t>
   </si>
   <si>
@@ -237,123 +378,6 @@
   </si>
   <si>
     <t>UP92968</t>
-  </si>
-  <si>
-    <t>CMO23018</t>
-  </si>
-  <si>
-    <t>NAHX61354</t>
-  </si>
-  <si>
-    <t>CMO265281</t>
-  </si>
-  <si>
-    <t>CMO113183</t>
-  </si>
-  <si>
-    <t>CHTT721963</t>
-  </si>
-  <si>
-    <t>COER355102</t>
-  </si>
-  <si>
-    <t>CHTT721768</t>
-  </si>
-  <si>
-    <t>CBFX352827</t>
-  </si>
-  <si>
-    <t>CMO111888</t>
-  </si>
-  <si>
-    <t>UP111566</t>
-  </si>
-  <si>
-    <t>SCFX516452</t>
-  </si>
-  <si>
-    <t>UP95632</t>
-  </si>
-  <si>
-    <t>CEFX319397</t>
-  </si>
-  <si>
-    <t>CMO20995</t>
-  </si>
-  <si>
-    <t>CHTT721503</t>
-  </si>
-  <si>
-    <t>COER354786</t>
-  </si>
-  <si>
-    <t>UP92929</t>
-  </si>
-  <si>
-    <t>CMO21725</t>
-  </si>
-  <si>
-    <t>COER354882</t>
-  </si>
-  <si>
-    <t>CMO21673</t>
-  </si>
-  <si>
-    <t>UP90541</t>
-  </si>
-  <si>
-    <t>CMO21363</t>
-  </si>
-  <si>
-    <t>UP99571</t>
-  </si>
-  <si>
-    <t>CMO23221</t>
-  </si>
-  <si>
-    <t>CMO20993</t>
-  </si>
-  <si>
-    <t>CMO20761</t>
-  </si>
-  <si>
-    <t>CTRN100072</t>
-  </si>
-  <si>
-    <t>UP95888</t>
-  </si>
-  <si>
-    <t>CEFX350694</t>
-  </si>
-  <si>
-    <t>CMO113100</t>
-  </si>
-  <si>
-    <t>UP111098</t>
-  </si>
-  <si>
-    <t>UP91674</t>
-  </si>
-  <si>
-    <t>CMO21736</t>
-  </si>
-  <si>
-    <t>CMO200170</t>
-  </si>
-  <si>
-    <t>CMO21122</t>
-  </si>
-  <si>
-    <t>UP100103</t>
-  </si>
-  <si>
-    <t>CHTT720797</t>
-  </si>
-  <si>
-    <t>UP99642</t>
-  </si>
-  <si>
-    <t>UP92722</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1242,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1259,339 +1283,129 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>720254</v>
+        <v>23018</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>833</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>223000</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>223000</v>
+      <c r="L3" t="s">
+        <v>11</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>93008</v>
+        <v>61354</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>833</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>223590</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>223590</v>
+      <c r="L4" t="s">
+        <v>11</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>99553</v>
+        <v>265281</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>833</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5">
-        <v>224660</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>224660</v>
+      <c r="L5" t="s">
+        <v>11</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>21336</v>
+        <v>100103</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1558</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6">
-        <v>223520</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>223520</v>
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>23016</v>
+        <v>720797</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1747</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7">
-        <v>222460</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>222460</v>
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>95944</v>
+        <v>99642</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1747</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>222530</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>222530</v>
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>99932</v>
+        <v>92722</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1747</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>222660</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>222660</v>
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>720342</v>
+        <v>93008</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1600,45 +1414,45 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>1747</v>
+        <v>941</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L10">
-        <v>222020</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>222020</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>13670</v>
+        <v>99553</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1647,327 +1461,327 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>1747</v>
+        <v>941</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L11">
-        <v>222740</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>222740</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>101543</v>
+        <v>721963</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
       <c r="L12">
-        <v>224100</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>224100</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>90117</v>
+        <v>355102</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
       <c r="L13">
-        <v>220130</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>220130</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>112791</v>
+        <v>721768</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
       <c r="L14">
-        <v>223880</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>223880</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>95926</v>
+        <v>352827</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
       <c r="L15">
-        <v>222980</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>222980</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>113184</v>
+        <v>111888</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
       <c r="L16">
-        <v>223800</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>223800</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>350707</v>
+        <v>111566</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
         <v>22</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
       <c r="L17">
-        <v>220350</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>220350</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>90658</v>
+        <v>113183</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1976,45 +1790,45 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G18">
-        <v>1747</v>
+        <v>255</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L18">
-        <v>222610</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>222610</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>20853</v>
+        <v>20995</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -2023,45 +1837,45 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G19">
-        <v>1747</v>
+        <v>255</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L19">
-        <v>223030</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>223030</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>111609</v>
+        <v>354786</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -2070,45 +1884,45 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G20">
-        <v>1747</v>
+        <v>255</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L20">
-        <v>224880</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>224880</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>112198</v>
+        <v>92929</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -2117,45 +1931,45 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>1747</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L21">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>113318</v>
+        <v>21725</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -2164,2023 +1978,2026 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G22">
-        <v>1747</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L22">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>112591</v>
+        <v>99932</v>
       </c>
       <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
       <c r="G23">
-        <v>1747</v>
+        <v>1443</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L23">
-        <v>220000</v>
+        <v>222660</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>220000</v>
+        <v>222660</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>21777</v>
+        <v>720342</v>
       </c>
       <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
       <c r="G24">
-        <v>1747</v>
+        <v>1443</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L24">
-        <v>220000</v>
+        <v>222020</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>220000</v>
+        <v>222020</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>23412</v>
+        <v>13670</v>
       </c>
       <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
       <c r="G25">
-        <v>1747</v>
+        <v>1443</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L25">
-        <v>220000</v>
+        <v>222740</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>220000</v>
+        <v>222740</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>111211</v>
+        <v>101543</v>
       </c>
       <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
       <c r="G26">
-        <v>1747</v>
+        <v>1443</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L26">
-        <v>220000</v>
+        <v>224100</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>220000</v>
+        <v>224100</v>
       </c>
       <c r="O26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>167153</v>
+        <v>90117</v>
       </c>
       <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
       <c r="G27">
-        <v>1747</v>
+        <v>1443</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L27">
-        <v>220000</v>
+        <v>220130</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>220000</v>
+        <v>220130</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>92968</v>
+        <v>112791</v>
       </c>
       <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
       <c r="G28">
-        <v>1747</v>
+        <v>1443</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L28">
-        <v>220000</v>
+        <v>223880</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>220000</v>
+        <v>223880</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>23018</v>
+        <v>95926</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G29">
-        <v>1746</v>
+        <v>1443</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L29">
-        <v>62400</v>
+        <v>222980</v>
       </c>
       <c r="M29">
-        <v>62400</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>222980</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>61354</v>
+        <v>113184</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G30">
-        <v>1746</v>
+        <v>1443</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L30">
-        <v>64100</v>
+        <v>223800</v>
       </c>
       <c r="M30">
-        <v>64100</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>223800</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>265281</v>
+        <v>350707</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G31">
-        <v>1746</v>
+        <v>1443</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L31">
-        <v>62700</v>
+        <v>220350</v>
       </c>
       <c r="M31">
-        <v>62700</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>220350</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>113183</v>
+        <v>90658</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>1746</v>
+        <v>1443</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L32">
-        <v>60800</v>
+        <v>222610</v>
       </c>
       <c r="M32">
-        <v>60800</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>222610</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>721963</v>
+        <v>720254</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G33">
-        <v>1342</v>
+        <v>1402</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="L33">
-        <v>63200</v>
+        <v>62500</v>
       </c>
       <c r="M33">
-        <v>63200</v>
+        <v>62500</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>355102</v>
+        <v>113100</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>1342</v>
+        <v>1052</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L34">
-        <v>62000</v>
+        <v>285955</v>
       </c>
       <c r="M34">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>225455</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>721768</v>
+        <v>111098</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>1342</v>
+        <v>1052</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L35">
-        <v>63100</v>
+        <v>285380</v>
       </c>
       <c r="M35">
-        <v>63100</v>
+        <v>60600</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>224780</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>352827</v>
+        <v>91674</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>1342</v>
+        <v>1052</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L36">
-        <v>60200</v>
+        <v>284990</v>
       </c>
       <c r="M36">
-        <v>60200</v>
+        <v>62000</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>222990</v>
       </c>
       <c r="O36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>111888</v>
+        <v>21736</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>1342</v>
+        <v>1052</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L37">
-        <v>62700</v>
+        <v>286030</v>
       </c>
       <c r="M37">
-        <v>62700</v>
+        <v>63000</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>223030</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>111566</v>
+        <v>200170</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>1342</v>
+        <v>1052</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L38">
-        <v>61000</v>
+        <v>286120</v>
       </c>
       <c r="M38">
-        <v>61000</v>
+        <v>62400</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>223720</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>516452</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>1632</v>
+        <v>1052</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L39">
-        <v>61900</v>
+        <v>223510</v>
       </c>
       <c r="M39">
-        <v>61900</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>223510</v>
       </c>
       <c r="O39" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>95632</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>1632</v>
+        <v>1052</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L40">
-        <v>61900</v>
+        <v>223415</v>
       </c>
       <c r="M40">
-        <v>61900</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>223415</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>319397</v>
+        <v>721503</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>1632</v>
+        <v>1052</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>222330</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
+      <c r="N41">
+        <v>222330</v>
+      </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>20995</v>
+        <v>23016</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G42">
-        <v>1746</v>
+        <v>510</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>40</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L42">
-        <v>61200</v>
+        <v>225155</v>
       </c>
       <c r="M42">
-        <v>61200</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>225155</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>721503</v>
+        <v>95944</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G43">
-        <v>1632</v>
+        <v>510</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
       </c>
       <c r="J43" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L43">
-        <v>63100</v>
+        <v>224285</v>
       </c>
       <c r="M43">
-        <v>63100</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>224285</v>
       </c>
       <c r="O43" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>354786</v>
+        <v>20853</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G44">
-        <v>1746</v>
+        <v>510</v>
       </c>
       <c r="H44" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L44">
-        <v>62400</v>
+        <v>225125</v>
       </c>
       <c r="M44">
-        <v>62400</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>225125</v>
       </c>
       <c r="O44" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>92929</v>
+        <v>111609</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G45">
-        <v>1746</v>
+        <v>510</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L45">
-        <v>60400</v>
+        <v>225105</v>
       </c>
       <c r="M45">
-        <v>60400</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>225105</v>
       </c>
       <c r="O45" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B46">
-        <v>21725</v>
+        <v>319397</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <v>1746</v>
+        <v>654</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
         <v>25</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L46">
-        <v>63100</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>63100</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>354882</v>
+        <v>21122</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G47">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L47">
-        <v>223370</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>223370</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>21673</v>
+        <v>354882</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G48">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L48">
-        <v>223610</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>223610</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>90541</v>
+        <v>21673</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G49">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L49">
-        <v>222490</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>222490</v>
+        <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>21363</v>
+        <v>90541</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G50">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L50">
-        <v>223340</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>223340</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>99571</v>
+        <v>21363</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G51">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H51" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K51" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L51">
-        <v>224760</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>224760</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>23221</v>
+        <v>99571</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G52">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L52">
-        <v>223180</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>223180</v>
+        <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>20993</v>
+        <v>23221</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G53">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L53">
-        <v>223860</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>223860</v>
+        <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>20761</v>
+        <v>20993</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G54">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K54" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L54">
-        <v>224360</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>224360</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>100072</v>
+        <v>20761</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G55">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K55" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L55">
-        <v>221110</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>221110</v>
+        <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B56">
-        <v>95888</v>
+        <v>100072</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G56">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K56" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L56">
-        <v>223950</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>223950</v>
+        <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>350694</v>
+        <v>95888</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G57">
-        <v>1410</v>
+        <v>654</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K57" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L57">
-        <v>223990</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>223990</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B58">
-        <v>113100</v>
+        <v>350694</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G58">
-        <v>1431</v>
+        <v>654</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L58">
-        <v>285955</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>60500</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>225455</v>
+        <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>21336</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>23</v>
+      </c>
+      <c r="G59">
+        <v>2343</v>
+      </c>
+      <c r="H59" t="s">
         <v>17</v>
       </c>
-      <c r="B59">
-        <v>111098</v>
-      </c>
-      <c r="C59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>1431</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
       <c r="J59" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L59">
-        <v>285380</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>60600</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>224780</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>112198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>2343</v>
+      </c>
+      <c r="H60" t="s">
         <v>17</v>
       </c>
-      <c r="B60">
-        <v>91674</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="J60" t="s">
         <v>34</v>
       </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>1431</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>35</v>
       </c>
-      <c r="K60" t="s">
-        <v>36</v>
-      </c>
       <c r="L60">
-        <v>284990</v>
+        <v>223505</v>
       </c>
       <c r="M60">
-        <v>62000</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>222990</v>
+        <v>223505</v>
       </c>
       <c r="O60" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>21736</v>
+        <v>113318</v>
       </c>
       <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>2343</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
         <v>34</v>
       </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>1431</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>35</v>
       </c>
-      <c r="K61" t="s">
-        <v>36</v>
-      </c>
       <c r="L61">
-        <v>286030</v>
+        <v>225740</v>
       </c>
       <c r="M61">
-        <v>63000</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>223030</v>
+        <v>225740</v>
       </c>
       <c r="O61" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>200170</v>
+        <v>112591</v>
       </c>
       <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>2343</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
         <v>34</v>
       </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62">
-        <v>1431</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>35</v>
       </c>
-      <c r="K62" t="s">
-        <v>36</v>
-      </c>
       <c r="L62">
-        <v>286120</v>
+        <v>223410</v>
       </c>
       <c r="M62">
-        <v>62400</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>223720</v>
+        <v>223410</v>
       </c>
       <c r="O62" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>21122</v>
+        <v>21777</v>
       </c>
       <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>23</v>
+      </c>
+      <c r="G63">
+        <v>2343</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
         <v>34</v>
       </c>
-      <c r="D63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63">
-        <v>1919</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" t="s">
-        <v>15</v>
-      </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L63">
-        <v>224900</v>
+        <v>223025</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>224900</v>
+        <v>223025</v>
       </c>
       <c r="O63" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>23412</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>23</v>
+      </c>
+      <c r="G64">
+        <v>2343</v>
+      </c>
+      <c r="H64" t="s">
         <v>17</v>
       </c>
-      <c r="B64">
-        <v>100103</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="J64" t="s">
         <v>34</v>
       </c>
-      <c r="D64" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64">
-        <v>1919</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" t="s">
-        <v>15</v>
-      </c>
       <c r="K64" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L64">
-        <v>222920</v>
+        <v>223520</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>222920</v>
+        <v>223520</v>
       </c>
       <c r="O64" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>720797</v>
+        <v>111211</v>
       </c>
       <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>23</v>
+      </c>
+      <c r="G65">
+        <v>2343</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
         <v>34</v>
       </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <v>1919</v>
-      </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" t="s">
-        <v>15</v>
-      </c>
       <c r="K65" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L65">
-        <v>223660</v>
+        <v>225345</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>223660</v>
+        <v>225345</v>
       </c>
       <c r="O65" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>167153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>23</v>
+      </c>
+      <c r="G66">
+        <v>2343</v>
+      </c>
+      <c r="H66" t="s">
         <v>17</v>
       </c>
-      <c r="B66">
-        <v>99642</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="J66" t="s">
         <v>34</v>
       </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>1919</v>
-      </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" t="s">
-        <v>15</v>
-      </c>
       <c r="K66" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L66">
-        <v>223510</v>
+        <v>225825</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>223510</v>
+        <v>225825</v>
       </c>
       <c r="O66" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>92968</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>23</v>
+      </c>
+      <c r="G67">
+        <v>2343</v>
+      </c>
+      <c r="H67" t="s">
         <v>17</v>
       </c>
-      <c r="B67">
-        <v>92722</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="J67" t="s">
         <v>34</v>
       </c>
-      <c r="D67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67">
-        <v>1919</v>
-      </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" t="s">
-        <v>15</v>
-      </c>
       <c r="K67" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="L67">
-        <v>224330</v>
+        <v>225955</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>224330</v>
+        <v>225955</v>
       </c>
       <c r="O67" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
